--- a/data/Production_scheduling.xlsx
+++ b/data/Production_scheduling.xlsx
@@ -1,60 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidchiu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haythamomar/Desktop/supply chain optimization/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{963C97FA-73DE-FE4A-A021-3910FA799121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{780C46AD-B9DB-2F4F-82CF-AA06F0244C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="13940" xr2:uid="{84C6757A-CA43-6146-8184-B981D3687BB0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{84C6757A-CA43-6146-8184-B981D3687BB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
-    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet2!#REF!</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet2!#REF!</definedName>
-    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet2!#REF!</definedName>
-    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet2!#REF!</definedName>
-    <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet2!$H$10</definedName>
-    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
-    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel2" localSheetId="0" hidden="1">5</definedName>
-    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel4" localSheetId="0" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet2!$F$2:$F$13</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">binary</definedName>
-    <definedName name="solver_rhs3" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet2!$B$2:$B$13</definedName>
-    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
-    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
-    <definedName name="solver_typ" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-  </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>demand</t>
   </si>
@@ -80,6 +41,9 @@
     <t>fixed cost</t>
   </si>
   <si>
+    <t>var</t>
+  </si>
+  <si>
     <t>storage cost</t>
   </si>
   <si>
@@ -120,19 +84,13 @@
   </si>
   <si>
     <t>period 12</t>
-  </si>
-  <si>
-    <t>produuction Cost</t>
-  </si>
-  <si>
-    <t>period</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,36 +98,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -177,64 +115,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,272 +438,265 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>3000</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>4000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>2500</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>4000</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>6000</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>250</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>5000</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>6000</v>
+      </c>
+      <c r="C10">
+        <v>2000</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>800</v>
+      </c>
+      <c r="C11">
+        <v>2000</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>900</v>
+      </c>
+      <c r="C12">
+        <v>2000</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="6">
-        <v>3000</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D2" s="6">
-        <v>40</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8">
-        <v>4000</v>
-      </c>
-      <c r="C3" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D3" s="8">
-        <v>40</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="6">
-        <v>2500</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D4" s="6">
-        <v>40</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="8">
-        <v>4000</v>
-      </c>
-      <c r="C5" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D5" s="8">
-        <v>40</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D6" s="6">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="8">
-        <v>100</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D7" s="8">
-        <v>40</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="6">
-        <v>250</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D8" s="6">
-        <v>40</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="8">
-        <v>5000</v>
-      </c>
-      <c r="C9" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D9" s="8">
-        <v>40</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="6">
-        <v>6000</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="6">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="8">
-        <v>800</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="8">
-        <v>40</v>
-      </c>
-      <c r="E11" s="8">
-        <v>1</v>
-      </c>
-      <c r="F11" s="8">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="6">
-        <v>900</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="6">
-        <v>40</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>1200</v>
       </c>
-      <c r="C13" s="2">
-        <v>2000</v>
-      </c>
-      <c r="D13" s="2">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2">
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>4000</v>
       </c>
     </row>
